--- a/tut05/output/0501EE17.xlsx
+++ b/tut05/output/0501EE17.xlsx
@@ -550,28 +550,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.714285714285714</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>8.590909090909092</v>
+        <v>8.59</v>
       </c>
       <c r="D6" t="n">
-        <v>8.456521739130435</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>7.260869565217392</v>
+        <v>7.26</v>
       </c>
       <c r="F6" t="n">
-        <v>7.230769230769231</v>
+        <v>7.23</v>
       </c>
       <c r="G6" t="n">
-        <v>6.575</v>
+        <v>6.58</v>
       </c>
       <c r="H6" t="n">
-        <v>6.302325581395348</v>
+        <v>6.3</v>
       </c>
       <c r="I6" t="n">
-        <v>6.210526315789473</v>
+        <v>6.21</v>
       </c>
     </row>
     <row r="7">
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.714285714285714</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>8.655913978494624</v>
+        <v>8.66</v>
       </c>
       <c r="D8" t="n">
-        <v>8.589928057553957</v>
+        <v>8.59</v>
       </c>
       <c r="E8" t="n">
-        <v>8.259459459459459</v>
+        <v>8.26</v>
       </c>
       <c r="F8" t="n">
-        <v>8.080357142857142</v>
+        <v>8.08</v>
       </c>
       <c r="G8" t="n">
-        <v>7.852272727272728</v>
+        <v>7.85</v>
       </c>
       <c r="H8" t="n">
-        <v>7.635179153094462</v>
+        <v>7.64</v>
       </c>
       <c r="I8" t="n">
-        <v>7.478260869565218</v>
+        <v>7.48</v>
       </c>
     </row>
   </sheetData>
